--- a/data/outputs/OR/47.xlsx
+++ b/data/outputs/OR/47.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ117"/>
+  <dimension ref="A1:BR117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -913,6 +918,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1130,6 +1136,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>1640838</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1339,6 +1350,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1540,6 +1552,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1757,6 +1770,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1962,6 +1976,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2171,6 +2186,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2380,6 +2396,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2597,6 +2614,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2806,6 +2824,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>4039828</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3019,6 +3042,11 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>4521474</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3224,6 +3252,11 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>4343921</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3433,6 +3466,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3642,6 +3676,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>4521481</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3851,6 +3890,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>4521477</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4052,6 +4096,11 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>4343936</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4269,6 +4318,11 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>4039839</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4470,6 +4524,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>1837901</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4683,6 +4742,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4900,6 +4960,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5105,6 +5166,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5310,6 +5372,11 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>4521473</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5523,6 +5590,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>4343934</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5728,6 +5800,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5810,7 +5883,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Radulescu, Vicentiu/0000-0003-4615-5537; Radulescu, Vicentiu D./0000-0003-4615-5537; Sebaoui, Madjid/0000-0002-4918-8206; </t>
+          <t>Radulescu, Vicentiu/0000-0003-4615-5537; Radulescu, Vicentiu D./0000-0003-4615-5537; Sebaoui, Madjid/0000-0002-4918-8206;</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr"/>
@@ -5933,6 +6006,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6134,6 +6208,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6335,6 +6410,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6544,6 +6620,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6753,6 +6830,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6970,6 +7048,11 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>4521469</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7175,6 +7258,11 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>4039824</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7388,6 +7476,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7601,6 +7690,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7802,6 +7892,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>4521479</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8011,6 +8106,11 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>4521475</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8220,6 +8320,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>4343938</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8433,6 +8538,11 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>4343920</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8642,6 +8752,11 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>4343928</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8847,6 +8962,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>4039834</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9056,6 +9176,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9261,6 +9382,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9466,6 +9588,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9667,6 +9790,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9884,6 +10008,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10097,6 +10222,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10302,6 +10428,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10503,6 +10630,11 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>4521471</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10720,6 +10852,11 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>4343924</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10933,6 +11070,11 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr">
+        <is>
+          <t>4039831</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11138,6 +11280,11 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr">
+        <is>
+          <t>4039823</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11347,6 +11494,11 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr">
+        <is>
+          <t>4039836</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11556,6 +11708,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11773,6 +11926,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11990,6 +12144,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12195,6 +12350,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12404,6 +12560,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12617,6 +12774,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12838,6 +12996,11 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr">
+        <is>
+          <t>2993585</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13047,6 +13210,11 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr">
+        <is>
+          <t>4521478</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13256,6 +13424,11 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr">
+        <is>
+          <t>4521470</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13457,6 +13630,11 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr">
+        <is>
+          <t>4521476</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13539,7 +13717,7 @@
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>Correia, Isabel C S/0000-0002-1778-0360; Saldanha-da-Gama, Francisco/0000-0002-2074-1856; </t>
+          <t>Correia, Isabel C S/0000-0002-1778-0360; Saldanha-da-Gama, Francisco/0000-0002-2074-1856;</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
@@ -13670,6 +13848,11 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr">
+        <is>
+          <t>4343935</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13891,6 +14074,11 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr">
+        <is>
+          <t>4343937</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14092,6 +14280,11 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr">
+        <is>
+          <t>4343922</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14309,6 +14502,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14518,6 +14712,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14727,6 +14922,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14932,6 +15128,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15149,6 +15346,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15358,6 +15556,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15563,6 +15762,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15780,6 +15980,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15993,6 +16194,11 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr">
+        <is>
+          <t>1605343</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16202,6 +16408,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16411,6 +16618,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16624,6 +16832,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16833,6 +17042,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17042,6 +17252,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17243,6 +17454,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17444,6 +17656,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17661,6 +17874,11 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr">
+        <is>
+          <t>4521480</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17870,6 +18088,11 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr">
+        <is>
+          <t>4521472</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18079,6 +18302,11 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr">
+        <is>
+          <t>4343927</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18284,6 +18512,11 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr">
+        <is>
+          <t>4343929</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18481,6 +18714,11 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr">
+        <is>
+          <t>4343923</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18686,6 +18924,11 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr">
+        <is>
+          <t>4039830</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18895,6 +19138,11 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr">
+        <is>
+          <t>4039822</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19096,6 +19344,11 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr">
+        <is>
+          <t>4039837</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19305,6 +19558,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19522,6 +19776,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19743,6 +19998,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19952,6 +20208,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20157,6 +20414,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20358,6 +20616,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20555,6 +20814,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20764,6 +21024,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20969,6 +21230,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21170,6 +21432,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21363,6 +21626,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21564,6 +21828,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21761,6 +22026,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21958,6 +22224,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22044,7 +22311,7 @@
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>Radulescu, Vicentiu D./0000-0003-4615-5537; Radulescu, Vicentiu/0000-0003-4615-5537; </t>
+          <t>Radulescu, Vicentiu D./0000-0003-4615-5537; Radulescu, Vicentiu/0000-0003-4615-5537;</t>
         </is>
       </c>
       <c r="AB104" t="inlineStr"/>
@@ -22167,6 +22434,11 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr">
+        <is>
+          <t>4521468</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22364,6 +22636,11 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr">
+        <is>
+          <t>4521467</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22565,6 +22842,11 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr">
+        <is>
+          <t>4343933</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22770,6 +23052,11 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr">
+        <is>
+          <t>4343931</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -22975,6 +23262,11 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr">
+        <is>
+          <t>4343926</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23192,6 +23484,11 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr">
+        <is>
+          <t>4039832</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23405,6 +23702,11 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr">
+        <is>
+          <t>4039833</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23618,6 +23920,11 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr">
+        <is>
+          <t>4039826</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23819,6 +24126,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24028,6 +24336,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24229,6 +24538,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24438,6 +24748,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24647,6 +24958,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -24840,6 +25152,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
